--- a/test_datas/test_data_infos.xlsx
+++ b/test_datas/test_data_infos.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="620" yWindow="11920" windowWidth="24920" windowHeight="8040" tabRatio="500"/>
+    <workbookView xWindow="620" yWindow="9020" windowWidth="24920" windowHeight="8040" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="login_suite" sheetId="1" r:id="rId1"/>
@@ -465,7 +465,7 @@
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/test_datas/test_data_infos.xlsx
+++ b/test_datas/test_data_infos.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="620" yWindow="9020" windowWidth="24920" windowHeight="8040" tabRatio="500"/>
+    <workbookView xWindow="1460" yWindow="9000" windowWidth="23540" windowHeight="8040" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="login_suite" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="29">
   <si>
     <t>测试方法名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -138,7 +138,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>陈娟1</t>
+    <t>陈娟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -465,7 +469,7 @@
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -549,7 +553,7 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="E3" t="s">
         <v>12</v>
